--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T10:00:41+00:00</t>
+    <t>2025-07-03T14:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T14:58:35+00:00</t>
+    <t>2025-07-07T09:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T09:10:41+00:00</t>
+    <t>2025-07-08T12:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/tddui-documentreference</t>
+    <t>https://interop.esante.gouv.fr/ig/cda/tddui/StructureDefinition/tddui-documentreference</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T12:05:35+00:00</t>
+    <t>2025-07-09T12:05:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T12:05:51+00:00</t>
+    <t>2025-07-28T15:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:32:52+00:00</t>
+    <t>2025-07-31T14:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:46:40+00:00</t>
+    <t>2025-07-31T14:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:58:24+00:00</t>
+    <t>2025-08-01T06:20:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:20:58+00:00</t>
+    <t>2025-08-01T06:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:53+00:00</t>
+    <t>2025-08-01T06:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:42:09+00:00</t>
+    <t>2025-08-01T06:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:55:52+00:00</t>
+    <t>2025-08-01T07:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:08:15+00:00</t>
+    <t>2025-08-01T07:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:10:19+00:00</t>
+    <t>2025-08-01T07:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:30:15+00:00</t>
+    <t>2025-08-01T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:35:44+00:00</t>
+    <t>2025-08-22T13:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:00:31+00:00</t>
+    <t>2025-09-10T14:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,7 +454,7 @@
     <t>DocumentReference.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -516,7 +516,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -559,7 +559,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -916,7 +916,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1989,7 +1989,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T14:23:46+00:00</t>
+    <t>2025-09-17T13:36:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T13:36:16+00:00</t>
+    <t>2025-09-19T07:33:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T07:33:08+00:00</t>
+    <t>2025-09-22T08:48:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:48:23+00:00</t>
+    <t>2025-10-15T08:15:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2765,7 +2765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>123</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>200</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>213</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>219</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>241</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>255</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>277</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>286</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>297</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>315</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>347</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>355</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>366</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>394</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>442</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>448</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>457</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>483</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>491</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>500</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>507</v>
       </c>
@@ -9885,12 +9885,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ64">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T08:15:35+00:00</t>
+    <t>2025-10-15T12:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:27:42+00:00</t>
+    <t>2025-10-15T13:26:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T13:26:09+00:00</t>
+    <t>2025-10-17T07:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:58:51+00:00</t>
+    <t>2025-10-17T08:37:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,7 +454,7 @@
     <t>DocumentReference.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -516,7 +516,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -559,7 +559,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -916,7 +916,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2765,7 +2765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>123</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>200</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>213</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>219</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>241</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>255</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>277</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>286</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>297</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>315</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>347</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>355</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>366</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>394</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>442</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>448</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>457</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>483</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>491</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>500</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>507</v>
       </c>
@@ -9885,12 +9885,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ64">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="27">
+    <filterColumn colId="26">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
